--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value807.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value807.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.459844543106114</v>
+        <v>1.127111911773682</v>
       </c>
       <c r="B1">
-        <v>2.851460974063826</v>
+        <v>1.608078002929688</v>
       </c>
       <c r="C1">
-        <v>2.18059282491449</v>
+        <v>4.589194297790527</v>
       </c>
       <c r="D1">
-        <v>2.053511981991697</v>
+        <v>0.5346905589103699</v>
       </c>
       <c r="E1">
-        <v>1.847222186252322</v>
+        <v>0.5934686660766602</v>
       </c>
     </row>
   </sheetData>
